--- a/biology/Botanique/Encelia_farinosa/Encelia_farinosa.xlsx
+++ b/biology/Botanique/Encelia_farinosa/Encelia_farinosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Encelia farinosa est une espèce de plante à fleurs de la famille des Asteraceae.
 </t>
@@ -513,14 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante forme un buisson gris argenté de 90 à 150 cm de hauteur. Les feuilles, de 3 à 10 cm de long, sont pétiolées, ovales, couvertes de poils gris[1].
-Appareil reproducteur
-L'inflorescence est un capitule jaune qui s’épanouit en petits groupes de capitules au sommet de longues tiges florales ramifiées, bien au-dessus du feuillage. Les tiges exsudent par temps chaud une résine odorante. Chaque capitule, qui mesure de 5 à 7,5 cm de diamètre, est constitué de 8 à 18 fleurons ligulés de 6 à 15 mm de long, entourant un centre jaune ou brun composé de fleurons tubulaires enveloppés d'une bractée[1].
-Le fruit est un akène sans pappus ni écaille.
-La floraison a lieu entre mars et juin.
-Espèce proche
-Une espèce proche, Encelia californica, ne présente qu'un seul capitule par tige florale[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante forme un buisson gris argenté de 90 à 150 cm de hauteur. Les feuilles, de 3 à 10 cm de long, sont pétiolées, ovales, couvertes de poils gris.
 </t>
         </is>
       </c>
@@ -546,13 +557,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette plante vit dans le sud-ouest des États-Unis et au nord-ouest du Mexique. Sa limite nord va de la Californie à l'Utah et à l'Arizona.
-Elle pousse sur les pentes et replats arides des zones désertiques.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence est un capitule jaune qui s’épanouit en petits groupes de capitules au sommet de longues tiges florales ramifiées, bien au-dessus du feuillage. Les tiges exsudent par temps chaud une résine odorante. Chaque capitule, qui mesure de 5 à 7,5 cm de diamètre, est constitué de 8 à 18 fleurons ligulés de 6 à 15 mm de long, entourant un centre jaune ou brun composé de fleurons tubulaires enveloppés d'une bractée.
+Le fruit est un akène sans pappus ni écaille.
+La floraison a lieu entre mars et juin.
 </t>
         </is>
       </c>
@@ -578,10 +596,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Systématique</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèce proche</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une espèce proche, Encelia californica, ne présente qu'un seul capitule par tige florale.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,12 +633,76 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante vit dans le sud-ouest des États-Unis et au nord-ouest du Mexique. Sa limite nord va de la Californie à l'Utah et à l'Arizona.
+Elle pousse sur les pentes et replats arides des zones désertiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Encelia_farinosa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Encelia_farinosa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Encelia_farinosa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Encelia_farinosa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Encelia farinosa et l'homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La résine exsudée par les tiges était mâchée par les Amérindiens[1]. Elle fut aussi utilisée comme encens dans les églises de Basse-Californie[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La résine exsudée par les tiges était mâchée par les Amérindiens. Elle fut aussi utilisée comme encens dans les églises de Basse-Californie.
 </t>
         </is>
       </c>
